--- a/docs/unit1/07_analytical/earthdam.xlsx
+++ b/docs/unit1/07_analytical/earthdam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\Courses\CE 544\in-class tasks\5. analytical solutions - profile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/5. analytical solutions - profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6310F2-F48C-AA4E-9248-CE89696F4677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19965" windowHeight="11280"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="25940" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="xl">Sheet1!$B$20</definedName>
     <definedName name="xu">Sheet1!$B$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -140,13 +141,13 @@
     <t>Flow Through an Earth Dam - Analytical Solution</t>
   </si>
   <si>
-    <t>Brigham Young University - CE En 544</t>
+    <t>Brigham Young University - CE 544</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -269,7 +270,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -346,7 +353,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -547,9 +560,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
@@ -563,6 +576,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1351"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -621,15 +637,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>254000</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -637,6 +653,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1352"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -671,9 +690,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -711,9 +730,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,7 +767,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,7 +802,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -956,36 +975,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1136,9 +1155,9 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>546100</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
@@ -1161,15 +1180,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>508000</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>177800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>254000</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1184,26 +1203,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
